--- a/src/attributions/attributions_saliency_traj_413.xlsx
+++ b/src/attributions/attributions_saliency_traj_413.xlsx
@@ -1573,571 +1573,571 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9505259990692139</v>
+        <v>0.0860055685043335</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2741674780845642</v>
+        <v>0.671600341796875</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2944679856300354</v>
+        <v>0.04964381083846092</v>
       </c>
       <c r="D3" t="n">
-        <v>0.354663610458374</v>
+        <v>0.2197716534137726</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6975212097167969</v>
+        <v>0.2287682294845581</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004134345799684525</v>
+        <v>0.06853431463241577</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01699801161885262</v>
+        <v>0.1624472737312317</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3621018528938293</v>
+        <v>0.1459887623786926</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0008405763655900955</v>
+        <v>0.03562507033348083</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8688237071037292</v>
+        <v>0.101217046380043</v>
       </c>
       <c r="K3" t="n">
-        <v>0.09055165946483612</v>
+        <v>0.4877253174781799</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5256471633911133</v>
+        <v>0.01749716699123383</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2002571672201157</v>
+        <v>0.6241885423660278</v>
       </c>
       <c r="N3" t="n">
-        <v>1.026481032371521</v>
+        <v>0.6290294528007507</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1850243508815765</v>
+        <v>0.04059344530105591</v>
       </c>
       <c r="P3" t="n">
-        <v>0.4306718409061432</v>
+        <v>0.2102384269237518</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.2489793747663498</v>
+        <v>0.298483282327652</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1666951030492783</v>
+        <v>0.07813777029514313</v>
       </c>
       <c r="S3" t="n">
-        <v>0.02476849034428596</v>
+        <v>0.1000697985291481</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1301615834236145</v>
+        <v>0.3574491739273071</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1202337518334389</v>
+        <v>0.1056639328598976</v>
       </c>
       <c r="V3" t="n">
-        <v>0.02877984754741192</v>
+        <v>0.05698177963495255</v>
       </c>
       <c r="W3" t="n">
-        <v>0.224799856543541</v>
+        <v>0.1032243520021439</v>
       </c>
       <c r="X3" t="n">
-        <v>0.1746176779270172</v>
+        <v>0.1567349135875702</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1573692113161087</v>
+        <v>0.04738759249448776</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.03992671519517899</v>
+        <v>0.002738317009061575</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.2118139564990997</v>
+        <v>0.04767687246203423</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.01201406307518482</v>
+        <v>0.2755647897720337</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.1489821672439575</v>
+        <v>0.174378514289856</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.1027717739343643</v>
+        <v>0.1416162401437759</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.2610996663570404</v>
+        <v>0.03270423412322998</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.07784959673881531</v>
+        <v>0.2235861122608185</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.1664565801620483</v>
+        <v>0.07161557674407959</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.2554107010364532</v>
+        <v>0.08292858302593231</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.050303615629673</v>
+        <v>0.06498976796865463</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.01994450017809868</v>
+        <v>0.1312452405691147</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.1380113065242767</v>
+        <v>0.02156698144972324</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.1455768942832947</v>
+        <v>0.2640634179115295</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.02853213995695114</v>
+        <v>0.004355262964963913</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.03491923958063126</v>
+        <v>0.09798897802829742</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.05816848948597908</v>
+        <v>0.1255570501089096</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.1780357658863068</v>
+        <v>0.1705954372882843</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.01897010207176208</v>
+        <v>0.06807024776935577</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.0111033683642745</v>
+        <v>0.1784114986658096</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.005105072632431984</v>
+        <v>0.0295933224260807</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.4189128577709198</v>
+        <v>0.3112816214561462</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.2362852543592453</v>
+        <v>0.5355194807052612</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.1303577125072479</v>
+        <v>0.1094829514622688</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.0210617408156395</v>
+        <v>0.258855402469635</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.2254882603883743</v>
+        <v>0.03311310335993767</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.01286840904504061</v>
+        <v>0.007102549076080322</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.026942178606987</v>
+        <v>0.2164214104413986</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.07175595313310623</v>
+        <v>0.1865797787904739</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.2809997200965881</v>
+        <v>0.04755875468254089</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.3622840046882629</v>
+        <v>0.04233073443174362</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.08341824263334274</v>
+        <v>0.249679833650589</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.2112945318222046</v>
+        <v>0.03145476058125496</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.002314180135726929</v>
+        <v>0.09539272636175156</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.2668108642101288</v>
+        <v>0.07743369042873383</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.003991812933236361</v>
+        <v>0.1125102415680885</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.06134318560361862</v>
+        <v>0.2504821419715881</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.06538048386573792</v>
+        <v>0.2687232196331024</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.1438978165388107</v>
+        <v>0.06092192605137825</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.08946543186903</v>
+        <v>0.07740552723407745</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.0364300012588501</v>
+        <v>0.1612963527441025</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.1045929789543152</v>
+        <v>0.09651190042495728</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.162754237651825</v>
+        <v>0.2523119449615479</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.2100156098604202</v>
+        <v>0.2798249125480652</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.1301261186599731</v>
+        <v>0.1613085865974426</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.05078646540641785</v>
+        <v>0.09836766868829727</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.006566276773810387</v>
+        <v>0.1658890247344971</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.07153789699077606</v>
+        <v>0.05014261603355408</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.3362147212028503</v>
+        <v>0.09978760033845901</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.03101323917508125</v>
+        <v>0.3224093616008759</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.0123983770608902</v>
+        <v>0.01214775443077087</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.09179817140102386</v>
+        <v>0.1822977066040039</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.2383976876735687</v>
+        <v>0.04302149266004562</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.03940450400114059</v>
+        <v>0.07864926010370255</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.07429926097393036</v>
+        <v>0.01552260667085648</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.1620353162288666</v>
+        <v>0.01604946702718735</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.01995940506458282</v>
+        <v>0.01016854122281075</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.1713075041770935</v>
+        <v>0.008125667460262775</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.08094057440757751</v>
+        <v>0.08413733541965485</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.03607134148478508</v>
+        <v>0.06923267245292664</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.01784640178084373</v>
+        <v>0.02259497158229351</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.07777984440326691</v>
+        <v>0.002851978410035372</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.006974963005632162</v>
+        <v>0.004948657937347889</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.002200390910729766</v>
+        <v>0.01820991933345795</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.1050936952233315</v>
+        <v>0.04812066256999969</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.004485378973186016</v>
+        <v>0.09279794245958328</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.1987809985876083</v>
+        <v>0.3353308439254761</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.03008130192756653</v>
+        <v>0.1454312354326248</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.05071711912751198</v>
+        <v>0.007797569967806339</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.02065623551607132</v>
+        <v>0.1868989318609238</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.2064490020275116</v>
+        <v>0.4090390503406525</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.06602581590414047</v>
+        <v>0.09956660866737366</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.01652181521058083</v>
+        <v>0.04707564041018486</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.08717866241931915</v>
+        <v>0.1420461088418961</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.004491660743951797</v>
+        <v>0.0209114532917738</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.1351116299629211</v>
+        <v>0.001585848163813353</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.09150252491235733</v>
+        <v>0.1310826539993286</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.05683018267154694</v>
+        <v>0.04428254440426826</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.02369561418890953</v>
+        <v>0.0002947794273495674</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.04424759745597839</v>
+        <v>0.008015312254428864</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.01976387016475201</v>
+        <v>0.0173844788223505</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.005943592637777328</v>
+        <v>0.005115419626235962</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.07856541126966476</v>
+        <v>0.04344392940402031</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.04422146081924438</v>
+        <v>0.04769513383507729</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.07466940581798553</v>
+        <v>0.06229191273450851</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.4464839100837708</v>
+        <v>0.5449279546737671</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.1040981039404869</v>
+        <v>0.01789595745503902</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.1522419899702072</v>
+        <v>0.560318648815155</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.310408890247345</v>
+        <v>0.3369388282299042</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.2736095786094666</v>
+        <v>0.03266677260398865</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.03626890853047371</v>
+        <v>0.260952889919281</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.1044120788574219</v>
+        <v>0.1106606647372246</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.1965492814779282</v>
+        <v>0.04422265291213989</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.08598180860280991</v>
+        <v>0.1322933286428452</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.01146169751882553</v>
+        <v>0.03601216897368431</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.010897321626544</v>
+        <v>0.02541704103350639</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.02712433040142059</v>
+        <v>0.2128206789493561</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.01806480996310711</v>
+        <v>0.1996903419494629</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.06263770163059235</v>
+        <v>0.08751252293586731</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.07402689009904861</v>
+        <v>0.3712659478187561</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.08366560190916061</v>
+        <v>0.1178572699427605</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.005195276811718941</v>
+        <v>0.1401405334472656</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.05891171097755432</v>
+        <v>0.2412527799606323</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.04694884642958641</v>
+        <v>0.5274127125740051</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.1723383218050003</v>
+        <v>0.01424775272607803</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.05864003673195839</v>
+        <v>0.07988015562295914</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.003116179257631302</v>
+        <v>0.1756987571716309</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.1179786622524261</v>
+        <v>0.1153353899717331</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.0762062668800354</v>
+        <v>0.1391850262880325</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.003362872870638967</v>
+        <v>0.157310888171196</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.07472921907901764</v>
+        <v>0.02881858684122562</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.2830630838871002</v>
+        <v>0.06146261841058731</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.1229971200227737</v>
+        <v>0.0753486379981041</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.08321508765220642</v>
+        <v>0.04310911148786545</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.2137529850006104</v>
+        <v>0.08486930280923843</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.1851717978715897</v>
+        <v>0.08184010535478592</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.08153967559337616</v>
+        <v>0.027725825086236</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.00761856883764267</v>
+        <v>0.1179727762937546</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.1293473392724991</v>
+        <v>0.1076504066586494</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.06575074046850204</v>
+        <v>0.05997117981314659</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.1251395344734192</v>
+        <v>0.09552545100450516</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.11126509308815</v>
+        <v>0.2518497109413147</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.1929154992103577</v>
+        <v>0.04967870190739632</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.1824977993965149</v>
+        <v>0.03707380592823029</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.07052022218704224</v>
+        <v>0.03279031813144684</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.2166688144207001</v>
+        <v>0.04083561897277832</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.1994118392467499</v>
+        <v>0.03413150459527969</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.008009277284145355</v>
+        <v>0.2646096646785736</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.0152004724368453</v>
+        <v>0.1215792894363403</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.1625929474830627</v>
+        <v>0.05629687756299973</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.07911481708288193</v>
+        <v>0.1749088168144226</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.04859162122011185</v>
+        <v>0.06653392314910889</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.0385318323969841</v>
+        <v>0.01016734354197979</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.07774276286363602</v>
+        <v>0.02096941322088242</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.03260127082467079</v>
+        <v>0.05576638877391815</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.002846540883183479</v>
+        <v>0.005682174116373062</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.1331399083137512</v>
+        <v>0.07448496669530869</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.02014867216348648</v>
+        <v>0.04502104222774506</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.2228605151176453</v>
+        <v>0.07624963670969009</v>
       </c>
       <c r="FH3" t="n">
-        <v>0.08762423694133759</v>
+        <v>0.318633109331131</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.04044906422495842</v>
+        <v>0.0192954558879137</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.06846220791339874</v>
+        <v>0.09142227470874786</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.1059395521879196</v>
+        <v>0.05373499915003777</v>
       </c>
       <c r="FL3" t="n">
-        <v>0.06223009526729584</v>
+        <v>0.009407460689544678</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.08528600633144379</v>
+        <v>0.0373983159661293</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.1927047520875931</v>
+        <v>0.1926700472831726</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.02985303476452827</v>
+        <v>0.009769942611455917</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.1038139313459396</v>
+        <v>0.1148395016789436</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.3758448660373688</v>
+        <v>0.1323074996471405</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.06746217608451843</v>
+        <v>0.03795662894845009</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.01301422715187073</v>
+        <v>0.1174648776650429</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.1682384461164474</v>
+        <v>0.05225621163845062</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.1366045027971268</v>
+        <v>0.2087923139333725</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.02212903648614883</v>
+        <v>0.3095179796218872</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.3231276869773865</v>
+        <v>0.07523368299007416</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.0276964008808136</v>
+        <v>0.009065225720405579</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.1784770786762238</v>
+        <v>0.06612571328878403</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.1238269582390785</v>
+        <v>0.06651727110147476</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.1271675527095795</v>
+        <v>0.008384287357330322</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.0817350298166275</v>
+        <v>0.1975990980863571</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.05462201684713364</v>
+        <v>0.2976228594779968</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.0363551639020443</v>
+        <v>0.1674015522003174</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.08399330079555511</v>
+        <v>0.1119827032089233</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.1113330647349358</v>
+        <v>0.02493735030293465</v>
       </c>
       <c r="GG3" t="n">
-        <v>0.2619757950305939</v>
+        <v>0.1016921401023865</v>
       </c>
     </row>
     <row r="4">
@@ -2711,1140 +2711,1140 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.006828921847045422</v>
+        <v>0.05262355878949165</v>
       </c>
       <c r="B5" t="n">
-        <v>0.001505978754721582</v>
+        <v>0.5404295921325684</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001017719972878695</v>
+        <v>0.05425528064370155</v>
       </c>
       <c r="D5" t="n">
-        <v>0.003210545051842928</v>
+        <v>0.1118133962154388</v>
       </c>
       <c r="E5" t="n">
-        <v>0.006574777420610189</v>
+        <v>0.04108810424804688</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01473053265362978</v>
+        <v>0.04429693892598152</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002230371115729213</v>
+        <v>0.047380730509758</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00489161629229784</v>
+        <v>0.08710199594497681</v>
       </c>
       <c r="I5" t="n">
-        <v>0.004409393761307001</v>
+        <v>0.008944380097091198</v>
       </c>
       <c r="J5" t="n">
-        <v>0.004742485005408525</v>
+        <v>0.07401756942272186</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0001939138455782086</v>
+        <v>0.4173641204833984</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001835370901972055</v>
+        <v>0.0607268251478672</v>
       </c>
       <c r="M5" t="n">
-        <v>0.00140608218498528</v>
+        <v>0.2489584684371948</v>
       </c>
       <c r="N5" t="n">
-        <v>0.000639920006506145</v>
+        <v>0.07799528539180756</v>
       </c>
       <c r="O5" t="n">
-        <v>0.009310348890721798</v>
+        <v>0.03951534628868103</v>
       </c>
       <c r="P5" t="n">
-        <v>0.005787787493318319</v>
+        <v>0.04446297511458397</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.002783851465210319</v>
+        <v>0.0001756067504175007</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0009585118968971074</v>
+        <v>0.02460306696593761</v>
       </c>
       <c r="S5" t="n">
-        <v>0.002772490261122584</v>
+        <v>0.06815791875123978</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0003501914616208524</v>
+        <v>0.1031335294246674</v>
       </c>
       <c r="U5" t="n">
-        <v>0.001185436500236392</v>
+        <v>0.03265925124287605</v>
       </c>
       <c r="V5" t="n">
-        <v>0.001002484350465238</v>
+        <v>0.04999089241027832</v>
       </c>
       <c r="W5" t="n">
-        <v>0.002489703940227628</v>
+        <v>0.09832322597503662</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0004188597085885704</v>
+        <v>0.05928239971399307</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.127156428992748e-05</v>
+        <v>0.05534950643777847</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.001664285315200686</v>
+        <v>0.004015488084405661</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.004951048642396927</v>
+        <v>0.0006227069534361362</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.002501791808754206</v>
+        <v>0.000950351357460022</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.002780805109068751</v>
+        <v>0.1599226444959641</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.0008278363384306431</v>
+        <v>0.01141450554132462</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.002985031809657812</v>
+        <v>0.05416727066040039</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.005387654528021812</v>
+        <v>0.02574443072080612</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.005775282625108957</v>
+        <v>0.02798542566597462</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.0002074933145195246</v>
+        <v>0.03107536770403385</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.0003271868044976145</v>
+        <v>0.08179599791765213</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.0003728577285073698</v>
+        <v>0.02516394667327404</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.00100513722281903</v>
+        <v>0.04271011799573898</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.002282104920595884</v>
+        <v>0.01145598571747541</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.001549427281133831</v>
+        <v>0.0128911891952157</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.002007706323638558</v>
+        <v>0.04085735231637955</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.0002922332205343992</v>
+        <v>0.01073121838271618</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.0008926403825171292</v>
+        <v>0.05913494527339935</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.002297346014529467</v>
+        <v>0.01069680135697126</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.004414498805999756</v>
+        <v>0.01575767993927002</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.0005917211528867483</v>
+        <v>0.01785544864833355</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.005546778906136751</v>
+        <v>0.02048873901367188</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.002895498648285866</v>
+        <v>0.1944449543952942</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.003064405173063278</v>
+        <v>0.04053417593240738</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.0006732559413649142</v>
+        <v>0.02713359147310257</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.007027167826890945</v>
+        <v>0.157697781920433</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.001424864050932229</v>
+        <v>0.02297759801149368</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.007131497375667095</v>
+        <v>0.02303704805672169</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.002771073952317238</v>
+        <v>0.05214319005608559</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.001762408181093633</v>
+        <v>0.005933685693889856</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.002455804962664843</v>
+        <v>0.02789234928786755</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.0007597011281177402</v>
+        <v>0.158980131149292</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.001461235224269331</v>
+        <v>0.09284564852714539</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.00506921811029315</v>
+        <v>0.06702283024787903</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.0009076574933715165</v>
+        <v>0.06014987081289291</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.002982303965836763</v>
+        <v>0.004972685128450394</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.00360798416659236</v>
+        <v>0.0007752412930130959</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.005053372122347355</v>
+        <v>0.01483744941651821</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.0002597729617264122</v>
+        <v>0.01460763998329639</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.003239236772060394</v>
+        <v>0.0311950258910656</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.003594054607674479</v>
+        <v>0.01547783054411411</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.001085023279301822</v>
+        <v>0.02239977940917015</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.005288252141326666</v>
+        <v>0.1022808849811554</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.001673448132351041</v>
+        <v>0.132608637213707</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.003263758262619376</v>
+        <v>0.02007856965065002</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.001837919000536203</v>
+        <v>0.05486027523875237</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.004249446094036102</v>
+        <v>0.03418431058526039</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.0009819797705858946</v>
+        <v>0.05575186386704445</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.002862498862668872</v>
+        <v>0.03765595704317093</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.003874001326039433</v>
+        <v>0.1464307606220245</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.002671913942322135</v>
+        <v>0.04372602328658104</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.0008030952885746956</v>
+        <v>0.01018162071704865</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.007302094716578722</v>
+        <v>0.04208265244960785</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.005205286666750908</v>
+        <v>0.01717344671487808</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.003398009808734059</v>
+        <v>0.03913412243127823</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.002421004697680473</v>
+        <v>0.005999444983899593</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.003741200547665358</v>
+        <v>0.008899045176804066</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.0007961282972246408</v>
+        <v>0.004272343590855598</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.0009716789936646819</v>
+        <v>0.1131383031606674</v>
       </c>
       <c r="CF5" t="n">
-        <v>7.504882523790002e-05</v>
+        <v>0.01090372819453478</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.0001948575954884291</v>
+        <v>0.01200220361351967</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.0003008834610227495</v>
+        <v>0.01248933747410774</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.00257259258069098</v>
+        <v>0.01069515570998192</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.0001955910847755149</v>
+        <v>0.03221399709582329</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.0005544192972593009</v>
+        <v>0.006109915673732758</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.0005790910799987614</v>
+        <v>0.0008983609732240438</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.001591092208400369</v>
+        <v>0.06409168243408203</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.0001915255270432681</v>
+        <v>0.04095357283949852</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.0007567037828266621</v>
+        <v>0.01594005338847637</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.002025130670517683</v>
+        <v>0.04588383436203003</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.004090126138180494</v>
+        <v>0.07270283997058868</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.004804831463843584</v>
+        <v>0.09376800805330276</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.007604695856571198</v>
+        <v>0.01604192331433296</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.005296280607581139</v>
+        <v>0.0492614358663559</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.0005094830994494259</v>
+        <v>0.03191949427127838</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.0008443116676062346</v>
+        <v>0.006878889165818691</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.0008648190996609628</v>
+        <v>0.1133202686905861</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.001005008118227124</v>
+        <v>0.0123657239601016</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.0001719199208309874</v>
+        <v>0.03400183096528053</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.0008074203506112099</v>
+        <v>0.008350973948836327</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.002372799441218376</v>
+        <v>0.0168688278645277</v>
       </c>
       <c r="DB5" t="n">
-        <v>2.939440310001373e-05</v>
+        <v>0.02597608789801598</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.0007842357736080885</v>
+        <v>0.00986897200345993</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.0007419669418595731</v>
+        <v>0.004134178627282381</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.003877338953316212</v>
+        <v>0.08673699945211411</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.001221115700900555</v>
+        <v>0.1165190488100052</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.001392535865306854</v>
+        <v>0.01495478115975857</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.005702340044081211</v>
+        <v>0.05078480392694473</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.004741592798382044</v>
+        <v>0.09994744509458542</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.00136871577706188</v>
+        <v>0.02229613438248634</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.00210818718187511</v>
+        <v>0.02395357564091682</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.007693967781960964</v>
+        <v>0.0753961056470871</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.001665491843596101</v>
+        <v>0.004525707103312016</v>
       </c>
       <c r="DN5" t="n">
-        <v>3.394077066332102e-05</v>
+        <v>0.02894419059157372</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.004601308610290289</v>
+        <v>0.1038151234388351</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.003025065409019589</v>
+        <v>0.04004992172122002</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.003301524091511965</v>
+        <v>0.06043664366006851</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.003526421030983329</v>
+        <v>0.04249460995197296</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.0008603701135143638</v>
+        <v>0.008043327368795872</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.004225569777190685</v>
+        <v>0.004068028181791306</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.001548055559396744</v>
+        <v>0.005005102138966322</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.001602599979378283</v>
+        <v>0.0687226727604866</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.001115366350859404</v>
+        <v>0.06069772690534592</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.0006417990080080926</v>
+        <v>0.05138364061713219</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.0004146161081735045</v>
+        <v>0.02326701395213604</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.004067054484039545</v>
+        <v>0.03853290528059006</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.003221843158826232</v>
+        <v>0.01698778569698334</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.0009899908909574151</v>
+        <v>0.002335220342501998</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.001207040273584425</v>
+        <v>0.02010837011039257</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.0003844267630483955</v>
+        <v>0.04957195371389389</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.0005540583515539765</v>
+        <v>0.01634642668068409</v>
       </c>
       <c r="EF5" t="n">
-        <v>4.00582212023437e-05</v>
+        <v>0.06697876006364822</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.001937882276251912</v>
+        <v>0.05912122130393982</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.0002006788272410631</v>
+        <v>0.02331598289310932</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.001250455621629953</v>
+        <v>0.005113411694765091</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.003218160476535559</v>
+        <v>0.05169733613729477</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.000664672814309597</v>
+        <v>0.02419476211071014</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.001598264672793448</v>
+        <v>0.01952449977397919</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.0009607580723240972</v>
+        <v>0.008898599073290825</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.0002594029647298157</v>
+        <v>0.001832082867622375</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.0009402052382938564</v>
+        <v>0.009808286093175411</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.005458276253193617</v>
+        <v>0.05245089530944824</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.001791733200661838</v>
+        <v>0.01642679423093796</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.001090027624741197</v>
+        <v>0.1319394707679749</v>
       </c>
       <c r="ES5" t="n">
-        <v>7.332698442041874e-05</v>
+        <v>0.05913572758436203</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.003911583218723536</v>
+        <v>0.02259683050215244</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.007455642335116863</v>
+        <v>0.00626629963517189</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.003987211268395185</v>
+        <v>0.01064098440110683</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.0006306156283244491</v>
+        <v>0.01540526933968067</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.001996605657041073</v>
+        <v>0.004887474235147238</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.001098144799470901</v>
+        <v>0.1192196011543274</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.0001619409158593044</v>
+        <v>0.001821412588469684</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.0002504924195818603</v>
+        <v>0.01127406489104033</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.001036935369484127</v>
+        <v>0.01170265395194292</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.00276394747197628</v>
+        <v>0.003896872978657484</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.0005082057323306799</v>
+        <v>0.02492051012814045</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.0003307856968604028</v>
+        <v>0.007403179537504911</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.0005473047494888306</v>
+        <v>0.003111581783741713</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.001619964139536023</v>
+        <v>0.0002265255898237228</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.0003960902686230838</v>
+        <v>0.03614049777388573</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.0002938912075478584</v>
+        <v>0.01522205397486687</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.001437568105757236</v>
+        <v>0.03751973807811737</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.004065277054905891</v>
+        <v>0.09749726951122284</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.005903085693717003</v>
+        <v>0.01991889625787735</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.001344705931842327</v>
+        <v>0.03516309335827827</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.002187401056289673</v>
+        <v>0.05254803225398064</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.00141427421476692</v>
+        <v>0.04166186973452568</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.001404627924785018</v>
+        <v>0.09125617891550064</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.001604235847480595</v>
+        <v>0.01743058487772942</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.002081922022625804</v>
+        <v>0.05290692299604416</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.007291949354112148</v>
+        <v>0.04119099676609039</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.0009559991303831339</v>
+        <v>0.007459320593625307</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.003366996999830008</v>
+        <v>0.02692639455199242</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.004376253113150597</v>
+        <v>0.03208094090223312</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.001695817103609443</v>
+        <v>0.01622999832034111</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.005076996050775051</v>
+        <v>0.02558185160160065</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.000231059268116951</v>
+        <v>0.04155008122324944</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.0006795547087676823</v>
+        <v>0.01252327114343643</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.0001113251782953739</v>
+        <v>0.004848698154091835</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.004766910802572966</v>
+        <v>0.01959108933806419</v>
       </c>
       <c r="GC5" t="n">
-        <v>2.183013202738948e-05</v>
+        <v>0.0428319126367569</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.0004822154878638685</v>
+        <v>0.09972149133682251</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.002033253666013479</v>
+        <v>0.06001896411180496</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.002178163267672062</v>
+        <v>0.02935503236949444</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.00194304040633142</v>
+        <v>0.03439841046929359</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.052919600397217e-07</v>
+        <v>4.486308171181008e-06</v>
       </c>
       <c r="B6" t="n">
-        <v>1.338887898327812e-07</v>
+        <v>7.955253749969415e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>1.99607992357187e-08</v>
+        <v>1.667950982664479e-06</v>
       </c>
       <c r="D6" t="n">
-        <v>2.346145322462689e-08</v>
+        <v>1.159286875918042e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>1.674852541100336e-07</v>
+        <v>2.362120994803263e-06</v>
       </c>
       <c r="F6" t="n">
-        <v>1.504429008036823e-07</v>
+        <v>3.424467649892904e-06</v>
       </c>
       <c r="G6" t="n">
-        <v>1.343072000281609e-07</v>
+        <v>2.219307361883693e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>2.645621499652862e-08</v>
+        <v>4.051331643495359e-07</v>
       </c>
       <c r="I6" t="n">
-        <v>1.258325994513143e-07</v>
+        <v>5.84355007049453e-07</v>
       </c>
       <c r="J6" t="n">
-        <v>1.102535023278506e-07</v>
+        <v>5.613993380393367e-06</v>
       </c>
       <c r="K6" t="n">
-        <v>1.075093223334989e-07</v>
+        <v>7.469719093933236e-06</v>
       </c>
       <c r="L6" t="n">
-        <v>7.832488790882053e-08</v>
+        <v>2.432541350572137e-06</v>
       </c>
       <c r="M6" t="n">
-        <v>1.522266757092439e-09</v>
+        <v>7.529329195676837e-06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.112315027919976e-08</v>
+        <v>2.816506366798421e-06</v>
       </c>
       <c r="O6" t="n">
-        <v>3.904116141484337e-09</v>
+        <v>2.96216921924497e-06</v>
       </c>
       <c r="P6" t="n">
-        <v>1.406553593596982e-07</v>
+        <v>2.117472376994556e-06</v>
       </c>
       <c r="Q6" t="n">
-        <v>5.118137025306169e-08</v>
+        <v>4.874515070696361e-06</v>
       </c>
       <c r="R6" t="n">
-        <v>1.114819241365694e-07</v>
+        <v>7.634591980831829e-08</v>
       </c>
       <c r="S6" t="n">
-        <v>6.537976560139214e-08</v>
+        <v>1.943044480867684e-07</v>
       </c>
       <c r="T6" t="n">
-        <v>3.05361957941841e-08</v>
+        <v>2.264025397380465e-06</v>
       </c>
       <c r="U6" t="n">
-        <v>8.383636895814561e-09</v>
+        <v>7.524193392782763e-07</v>
       </c>
       <c r="V6" t="n">
-        <v>8.804967421838228e-08</v>
+        <v>1.264857019123156e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>5.782836254297763e-08</v>
+        <v>8.023857844818849e-08</v>
       </c>
       <c r="X6" t="n">
-        <v>2.379933761176289e-08</v>
+        <v>2.594769739516778e-06</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.935227751611819e-08</v>
+        <v>2.281923343616654e-07</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.193351284456412e-08</v>
+        <v>2.082753780996427e-06</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.447248791919264e-07</v>
+        <v>4.728930775854678e-07</v>
       </c>
       <c r="AB6" t="n">
-        <v>2.874739557512385e-09</v>
+        <v>1.366526817037084e-06</v>
       </c>
       <c r="AC6" t="n">
-        <v>6.068472657716484e-08</v>
+        <v>1.384756558309164e-07</v>
       </c>
       <c r="AD6" t="n">
-        <v>4.377434947855363e-08</v>
+        <v>6.483073207164125e-07</v>
       </c>
       <c r="AE6" t="n">
-        <v>4.319304025557358e-08</v>
+        <v>4.686719876190182e-06</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.324775370103453e-08</v>
+        <v>1.088549765881908e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.437984260785015e-08</v>
+        <v>1.490261411163374e-06</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.44669016322041e-07</v>
+        <v>2.379350689807325e-07</v>
       </c>
       <c r="AI6" t="n">
-        <v>2.500730289511921e-08</v>
+        <v>1.39602968829422e-06</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.366925488355264e-07</v>
+        <v>4.027866964406712e-07</v>
       </c>
       <c r="AK6" t="n">
-        <v>1.709225116997004e-08</v>
+        <v>2.694121121749049e-07</v>
       </c>
       <c r="AL6" t="n">
-        <v>3.42543486908653e-08</v>
+        <v>1.750827891555673e-06</v>
       </c>
       <c r="AM6" t="n">
-        <v>2.053725189909983e-09</v>
+        <v>3.34815979385894e-07</v>
       </c>
       <c r="AN6" t="n">
-        <v>7.356575792982767e-09</v>
+        <v>3.770293233174016e-06</v>
       </c>
       <c r="AO6" t="n">
-        <v>3.624001720936576e-08</v>
+        <v>1.752196453708166e-06</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.236645772451084e-07</v>
+        <v>9.177508104585286e-07</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.117404207524487e-08</v>
+        <v>1.851093429650064e-07</v>
       </c>
       <c r="AR6" t="n">
-        <v>1.344701416883254e-07</v>
+        <v>1.359855559712742e-06</v>
       </c>
       <c r="AS6" t="n">
-        <v>3.550669447349719e-08</v>
+        <v>1.531610905658454e-06</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.488814487833224e-08</v>
+        <v>3.873636273965531e-07</v>
       </c>
       <c r="AU6" t="n">
-        <v>5.395772717520231e-10</v>
+        <v>5.058876467955997e-06</v>
       </c>
       <c r="AV6" t="n">
-        <v>9.864387351399273e-08</v>
+        <v>9.331428714176582e-07</v>
       </c>
       <c r="AW6" t="n">
-        <v>7.873048701867447e-08</v>
+        <v>5.063458502263529e-06</v>
       </c>
       <c r="AX6" t="n">
-        <v>1.092188099960367e-07</v>
+        <v>2.313036929990631e-06</v>
       </c>
       <c r="AY6" t="n">
-        <v>1.044353865609082e-07</v>
+        <v>1.531324869574746e-06</v>
       </c>
       <c r="AZ6" t="n">
-        <v>5.94383209318039e-10</v>
+        <v>1.331027874584834e-06</v>
       </c>
       <c r="BA6" t="n">
-        <v>1.423639872655258e-08</v>
+        <v>4.280397661204915e-06</v>
       </c>
       <c r="BB6" t="n">
-        <v>1.130072657673509e-08</v>
+        <v>8.166260840880568e-07</v>
       </c>
       <c r="BC6" t="n">
-        <v>5.0157659359229e-08</v>
+        <v>3.798308171099052e-06</v>
       </c>
       <c r="BD6" t="n">
-        <v>6.896378579313023e-08</v>
+        <v>1.33372702748602e-06</v>
       </c>
       <c r="BE6" t="n">
-        <v>3.629800815474482e-08</v>
+        <v>1.73718444784754e-06</v>
       </c>
       <c r="BF6" t="n">
-        <v>1.193000116472831e-07</v>
+        <v>2.73284194918233e-06</v>
       </c>
       <c r="BG6" t="n">
-        <v>1.401767857345249e-08</v>
+        <v>2.968832632177509e-06</v>
       </c>
       <c r="BH6" t="n">
-        <v>2.011544211200089e-07</v>
+        <v>1.962877377081895e-06</v>
       </c>
       <c r="BI6" t="n">
-        <v>2.769421669768235e-08</v>
+        <v>7.856948514017859e-07</v>
       </c>
       <c r="BJ6" t="n">
-        <v>1.415765069623376e-07</v>
+        <v>4.179625193501124e-06</v>
       </c>
       <c r="BK6" t="n">
-        <v>9.078049600930171e-08</v>
+        <v>8.158309583450318e-07</v>
       </c>
       <c r="BL6" t="n">
-        <v>6.504849636712606e-08</v>
+        <v>2.993185717059532e-06</v>
       </c>
       <c r="BM6" t="n">
-        <v>7.624734621458629e-08</v>
+        <v>7.656742582184961e-07</v>
       </c>
       <c r="BN6" t="n">
-        <v>4.318476953812933e-08</v>
+        <v>1.548406316942419e-06</v>
       </c>
       <c r="BO6" t="n">
-        <v>4.858954127939796e-08</v>
+        <v>2.442107870592736e-06</v>
       </c>
       <c r="BP6" t="n">
-        <v>8.231667436575663e-08</v>
+        <v>6.59012016512861e-07</v>
       </c>
       <c r="BQ6" t="n">
-        <v>1.200083801222718e-07</v>
+        <v>2.109228489644011e-07</v>
       </c>
       <c r="BR6" t="n">
-        <v>1.338077471046972e-08</v>
+        <v>3.118984750472009e-07</v>
       </c>
       <c r="BS6" t="n">
-        <v>1.186349649628937e-07</v>
+        <v>1.918192538141739e-08</v>
       </c>
       <c r="BT6" t="n">
-        <v>4.7409201897608e-08</v>
+        <v>4.427577380283765e-07</v>
       </c>
       <c r="BU6" t="n">
-        <v>1.93169551465644e-08</v>
+        <v>3.108644705207553e-06</v>
       </c>
       <c r="BV6" t="n">
-        <v>1.189540288493163e-08</v>
+        <v>2.731674612732604e-06</v>
       </c>
       <c r="BW6" t="n">
-        <v>1.138629635022426e-08</v>
+        <v>8.04747003257944e-07</v>
       </c>
       <c r="BX6" t="n">
-        <v>1.04575716974864e-08</v>
+        <v>2.270608547405573e-06</v>
       </c>
       <c r="BY6" t="n">
-        <v>1.594468415078154e-07</v>
+        <v>2.758646132861031e-06</v>
       </c>
       <c r="BZ6" t="n">
-        <v>1.670316329693833e-08</v>
+        <v>4.145109073760977e-07</v>
       </c>
       <c r="CA6" t="n">
-        <v>7.838249871383596e-08</v>
+        <v>1.179224682346103e-07</v>
       </c>
       <c r="CB6" t="n">
-        <v>7.068474872085062e-08</v>
+        <v>5.987443500998779e-07</v>
       </c>
       <c r="CC6" t="n">
-        <v>1.188815375030572e-07</v>
+        <v>1.42906867495185e-06</v>
       </c>
       <c r="CD6" t="n">
-        <v>6.307310940201205e-08</v>
+        <v>7.464110467481078e-07</v>
       </c>
       <c r="CE6" t="n">
-        <v>2.995160386376483e-08</v>
+        <v>7.859415518396418e-07</v>
       </c>
       <c r="CF6" t="n">
-        <v>2.032511048355445e-09</v>
+        <v>6.449022293963935e-07</v>
       </c>
       <c r="CG6" t="n">
-        <v>4.844515899549151e-09</v>
+        <v>2.655702246556757e-06</v>
       </c>
       <c r="CH6" t="n">
-        <v>3.853151753219208e-08</v>
+        <v>9.204801472151303e-07</v>
       </c>
       <c r="CI6" t="n">
-        <v>6.541076125188283e-09</v>
+        <v>6.787288953091775e-07</v>
       </c>
       <c r="CJ6" t="n">
-        <v>4.364423933367334e-09</v>
+        <v>1.705573140498018e-07</v>
       </c>
       <c r="CK6" t="n">
-        <v>4.785917795402383e-08</v>
+        <v>5.777026785835915e-07</v>
       </c>
       <c r="CL6" t="n">
-        <v>3.185557062579392e-08</v>
+        <v>7.219261419777467e-07</v>
       </c>
       <c r="CM6" t="n">
-        <v>5.276638859186278e-08</v>
+        <v>8.107289204417611e-07</v>
       </c>
       <c r="CN6" t="n">
-        <v>6.791265150241088e-08</v>
+        <v>1.651703541938332e-06</v>
       </c>
       <c r="CO6" t="n">
-        <v>3.301642692576934e-08</v>
+        <v>9.811392374103889e-07</v>
       </c>
       <c r="CP6" t="n">
-        <v>1.10929498475798e-07</v>
+        <v>5.025593168284104e-07</v>
       </c>
       <c r="CQ6" t="n">
-        <v>7.474257301964826e-08</v>
+        <v>1.183377094093885e-06</v>
       </c>
       <c r="CR6" t="n">
-        <v>1.210899114312269e-07</v>
+        <v>1.641813696551253e-06</v>
       </c>
       <c r="CS6" t="n">
-        <v>3.108004875684856e-08</v>
+        <v>4.441535566002131e-06</v>
       </c>
       <c r="CT6" t="n">
-        <v>7.635264154259858e-08</v>
+        <v>2.688374252102221e-06</v>
       </c>
       <c r="CU6" t="n">
-        <v>1.47417926754656e-08</v>
+        <v>1.375278202431218e-06</v>
       </c>
       <c r="CV6" t="n">
-        <v>8.74070167355967e-08</v>
+        <v>1.9236363186792e-06</v>
       </c>
       <c r="CW6" t="n">
-        <v>1.202027011260043e-08</v>
+        <v>1.410062964168901e-06</v>
       </c>
       <c r="CX6" t="n">
-        <v>3.084888788862372e-09</v>
+        <v>4.957179839948367e-07</v>
       </c>
       <c r="CY6" t="n">
-        <v>1.766153223670131e-09</v>
+        <v>2.734090003286838e-06</v>
       </c>
       <c r="CZ6" t="n">
-        <v>2.144265387471478e-08</v>
+        <v>1.278282297789701e-06</v>
       </c>
       <c r="DA6" t="n">
-        <v>3.135797044251376e-08</v>
+        <v>2.571554773567186e-07</v>
       </c>
       <c r="DB6" t="n">
-        <v>6.206988700796501e-09</v>
+        <v>7.82843073920958e-07</v>
       </c>
       <c r="DC6" t="n">
-        <v>3.234487522263407e-08</v>
+        <v>3.976217612944311e-07</v>
       </c>
       <c r="DD6" t="n">
-        <v>3.282287330819145e-09</v>
+        <v>7.816200309207488e-07</v>
       </c>
       <c r="DE6" t="n">
-        <v>5.15557019298285e-08</v>
+        <v>4.471470674616285e-06</v>
       </c>
       <c r="DF6" t="n">
-        <v>4.289799448997655e-08</v>
+        <v>6.060796749807196e-06</v>
       </c>
       <c r="DG6" t="n">
-        <v>1.790079551255985e-08</v>
+        <v>1.473704060117598e-06</v>
       </c>
       <c r="DH6" t="n">
-        <v>3.722491825897123e-08</v>
+        <v>4.305184120312333e-06</v>
       </c>
       <c r="DI6" t="n">
-        <v>8.634560622056142e-09</v>
+        <v>5.539985977520701e-06</v>
       </c>
       <c r="DJ6" t="n">
-        <v>1.359700405600961e-07</v>
+        <v>9.271238923247438e-07</v>
       </c>
       <c r="DK6" t="n">
-        <v>1.445982320547046e-07</v>
+        <v>3.524820158418152e-06</v>
       </c>
       <c r="DL6" t="n">
-        <v>3.5616729121557e-08</v>
+        <v>2.875113750633318e-06</v>
       </c>
       <c r="DM6" t="n">
-        <v>2.290109435421073e-08</v>
+        <v>1.56138673901296e-06</v>
       </c>
       <c r="DN6" t="n">
-        <v>3.316261398822462e-08</v>
+        <v>1.809815444175911e-06</v>
       </c>
       <c r="DO6" t="n">
-        <v>3.061146713889684e-08</v>
+        <v>1.311008531956759e-06</v>
       </c>
       <c r="DP6" t="n">
-        <v>1.619073231040602e-08</v>
+        <v>4.806562401427072e-07</v>
       </c>
       <c r="DQ6" t="n">
-        <v>2.881631822049258e-08</v>
+        <v>8.458891898044385e-08</v>
       </c>
       <c r="DR6" t="n">
-        <v>7.149138525619492e-08</v>
+        <v>1.654151901675505e-06</v>
       </c>
       <c r="DS6" t="n">
-        <v>2.31262244909658e-08</v>
+        <v>2.393442855463945e-06</v>
       </c>
       <c r="DT6" t="n">
-        <v>4.083931059994939e-08</v>
+        <v>2.619518681967747e-06</v>
       </c>
       <c r="DU6" t="n">
-        <v>3.891472033501486e-08</v>
+        <v>7.973549713824468e-07</v>
       </c>
       <c r="DV6" t="n">
-        <v>7.187423989307717e-08</v>
+        <v>3.358454137014633e-07</v>
       </c>
       <c r="DW6" t="n">
-        <v>1.019805608848401e-07</v>
+        <v>1.459737177356146e-06</v>
       </c>
       <c r="DX6" t="n">
-        <v>5.853625140161967e-08</v>
+        <v>1.018700345412071e-06</v>
       </c>
       <c r="DY6" t="n">
-        <v>8.541442753084993e-08</v>
+        <v>6.443299298553029e-07</v>
       </c>
       <c r="DZ6" t="n">
-        <v>5.563682847764539e-09</v>
+        <v>5.016790964873508e-07</v>
       </c>
       <c r="EA6" t="n">
-        <v>1.012864814242675e-07</v>
+        <v>1.786356961019919e-06</v>
       </c>
       <c r="EB6" t="n">
-        <v>3.355727784537521e-08</v>
+        <v>1.755367520672735e-06</v>
       </c>
       <c r="EC6" t="n">
-        <v>1.002580596320968e-08</v>
+        <v>2.190584382333327e-06</v>
       </c>
       <c r="ED6" t="n">
-        <v>7.363110654523553e-08</v>
+        <v>6.589407348656096e-07</v>
       </c>
       <c r="EE6" t="n">
-        <v>3.451262742260042e-08</v>
+        <v>1.70382759279164e-06</v>
       </c>
       <c r="EF6" t="n">
-        <v>7.920417033346894e-08</v>
+        <v>6.069398068575538e-07</v>
       </c>
       <c r="EG6" t="n">
-        <v>4.171867118429873e-08</v>
+        <v>1.158605641649046e-06</v>
       </c>
       <c r="EH6" t="n">
-        <v>1.049342657211128e-08</v>
+        <v>2.003895644975273e-07</v>
       </c>
       <c r="EI6" t="n">
-        <v>1.270018756827085e-08</v>
+        <v>2.991867859236663e-06</v>
       </c>
       <c r="EJ6" t="n">
-        <v>4.728327240854924e-08</v>
+        <v>1.163444522944701e-07</v>
       </c>
       <c r="EK6" t="n">
-        <v>3.870312426101918e-08</v>
+        <v>8.158216928677575e-07</v>
       </c>
       <c r="EL6" t="n">
-        <v>3.58665985800144e-10</v>
+        <v>5.20073740517546e-07</v>
       </c>
       <c r="EM6" t="n">
-        <v>1.555730300140112e-08</v>
+        <v>3.495587179713766e-07</v>
       </c>
       <c r="EN6" t="n">
-        <v>7.824560555036442e-09</v>
+        <v>1.05447327314323e-06</v>
       </c>
       <c r="EO6" t="n">
-        <v>2.222927264483587e-08</v>
+        <v>3.423929683776805e-06</v>
       </c>
       <c r="EP6" t="n">
-        <v>1.318682407713823e-08</v>
+        <v>1.426938183612947e-06</v>
       </c>
       <c r="EQ6" t="n">
-        <v>2.823553835185066e-09</v>
+        <v>7.338701379921986e-08</v>
       </c>
       <c r="ER6" t="n">
-        <v>2.21644960163303e-08</v>
+        <v>4.681618065660587e-06</v>
       </c>
       <c r="ES6" t="n">
-        <v>1.255899206853428e-07</v>
+        <v>1.959460860234685e-06</v>
       </c>
       <c r="ET6" t="n">
-        <v>3.093965261768972e-08</v>
+        <v>3.430959623074159e-06</v>
       </c>
       <c r="EU6" t="n">
-        <v>6.977909805527815e-08</v>
+        <v>1.365840830658271e-06</v>
       </c>
       <c r="EV6" t="n">
-        <v>5.129233926481902e-08</v>
+        <v>1.125804260482255e-06</v>
       </c>
       <c r="EW6" t="n">
-        <v>8.722693678464566e-08</v>
+        <v>5.528121391762397e-07</v>
       </c>
       <c r="EX6" t="n">
-        <v>9.466807426861124e-08</v>
+        <v>1.72062777892279e-06</v>
       </c>
       <c r="EY6" t="n">
-        <v>2.37232526956177e-08</v>
+        <v>1.481449885432085e-06</v>
       </c>
       <c r="EZ6" t="n">
-        <v>1.494781010080715e-08</v>
+        <v>6.70910196731711e-07</v>
       </c>
       <c r="FA6" t="n">
-        <v>2.751270145040507e-08</v>
+        <v>3.106784333795076e-06</v>
       </c>
       <c r="FB6" t="n">
-        <v>1.69097500446469e-08</v>
+        <v>1.58675436523481e-06</v>
       </c>
       <c r="FC6" t="n">
-        <v>6.076565917112475e-09</v>
+        <v>9.259703688258014e-07</v>
       </c>
       <c r="FD6" t="n">
-        <v>2.571560742126167e-10</v>
+        <v>6.081409082980826e-07</v>
       </c>
       <c r="FE6" t="n">
-        <v>3.114154267791491e-08</v>
+        <v>5.058282681602577e-09</v>
       </c>
       <c r="FF6" t="n">
-        <v>5.261562296965394e-09</v>
+        <v>9.623130381442024e-07</v>
       </c>
       <c r="FG6" t="n">
-        <v>6.140698616263762e-09</v>
+        <v>2.981231318699429e-06</v>
       </c>
       <c r="FH6" t="n">
-        <v>2.289310607750394e-08</v>
+        <v>8.329104730364634e-07</v>
       </c>
       <c r="FI6" t="n">
-        <v>8.900979509007811e-08</v>
+        <v>1.202972384817258e-06</v>
       </c>
       <c r="FJ6" t="n">
-        <v>3.174466201016912e-08</v>
+        <v>1.777706017946912e-07</v>
       </c>
       <c r="FK6" t="n">
-        <v>8.681559648948678e-08</v>
+        <v>7.842060085749836e-07</v>
       </c>
       <c r="FL6" t="n">
-        <v>2.59868127017171e-08</v>
+        <v>2.799437879730249e-06</v>
       </c>
       <c r="FM6" t="n">
-        <v>2.731113113441097e-09</v>
+        <v>6.074586167414964e-07</v>
       </c>
       <c r="FN6" t="n">
-        <v>2.24499689949198e-08</v>
+        <v>1.576016870785679e-06</v>
       </c>
       <c r="FO6" t="n">
-        <v>3.971047135564731e-08</v>
+        <v>1.378305825028292e-07</v>
       </c>
       <c r="FP6" t="n">
-        <v>5.19339193871815e-09</v>
+        <v>2.215776703451411e-06</v>
       </c>
       <c r="FQ6" t="n">
-        <v>7.428271686649168e-08</v>
+        <v>2.076382770610508e-06</v>
       </c>
       <c r="FR6" t="n">
-        <v>3.412084126352966e-08</v>
+        <v>1.528159828012576e-06</v>
       </c>
       <c r="FS6" t="n">
-        <v>1.754862921643507e-07</v>
+        <v>9.796099220693577e-08</v>
       </c>
       <c r="FT6" t="n">
-        <v>3.393728320588707e-08</v>
+        <v>1.044220084622793e-06</v>
       </c>
       <c r="FU6" t="n">
-        <v>2.576470947701637e-08</v>
+        <v>1.225231358148449e-06</v>
       </c>
       <c r="FV6" t="n">
-        <v>1.669027049899796e-08</v>
+        <v>1.835251168813556e-07</v>
       </c>
       <c r="FW6" t="n">
-        <v>2.596432757684397e-08</v>
+        <v>4.623605036613299e-07</v>
       </c>
       <c r="FX6" t="n">
-        <v>2.920516983806465e-08</v>
+        <v>1.227077746079885e-06</v>
       </c>
       <c r="FY6" t="n">
-        <v>3.097500034243694e-09</v>
+        <v>1.28945202959585e-06</v>
       </c>
       <c r="FZ6" t="n">
-        <v>5.303759920138873e-08</v>
+        <v>2.268083107992425e-06</v>
       </c>
       <c r="GA6" t="n">
-        <v>6.504366467652289e-08</v>
+        <v>8.301306024804944e-07</v>
       </c>
       <c r="GB6" t="n">
-        <v>9.17082303431016e-08</v>
+        <v>1.147696366388118e-06</v>
       </c>
       <c r="GC6" t="n">
-        <v>1.155785298578849e-07</v>
+        <v>4.835665095015429e-07</v>
       </c>
       <c r="GD6" t="n">
-        <v>1.020038311594362e-07</v>
+        <v>7.709940632594225e-07</v>
       </c>
       <c r="GE6" t="n">
-        <v>9.88919879318928e-09</v>
+        <v>3.135799033771036e-06</v>
       </c>
       <c r="GF6" t="n">
-        <v>5.735040531362756e-08</v>
+        <v>4.226509133786749e-07</v>
       </c>
       <c r="GG6" t="n">
-        <v>1.218073197861713e-08</v>
+        <v>2.167693367027823e-07</v>
       </c>
     </row>
     <row r="7">
